--- a/bip1271_02_data.xlsx
+++ b/bip1271_02_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>X</t>
   </si>
@@ -2811,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:P40"/>
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3320,7 +3320,7 @@
         <v>-14.481164025856</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>24.415068779315199</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>26.532055023452159</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>-5.7743559812382763</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>-21.619484784990622</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>18.704412172007501</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>22.963529737605999</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>-14.629176209915199</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>-1.7033409679321569</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>-7.3626727743457252</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>-3.8901382194765799</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>5.8878894244187343</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>-8.2896884604650154</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>-16.631750768372019</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>-12.305400614697611</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3799,20 +3799,20 @@
       <c r="J31">
         <v>-8.8443204917580918</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>46</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>47</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>48</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -3843,23 +3843,23 @@
       <c r="J32">
         <v>-12.075456393406469</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>50</v>
       </c>
-      <c r="M32" s="2">
+      <c r="N32" s="2">
         <v>3.3815210000000002</v>
       </c>
-      <c r="N32" s="2">
+      <c r="O32" s="2">
         <v>1.1351309999999999</v>
       </c>
-      <c r="O32" s="2">
+      <c r="P32" s="2">
         <v>2.4538530000000001</v>
       </c>
-      <c r="P32" s="2">
+      <c r="Q32" s="2">
         <v>2.6050490000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -3890,23 +3890,23 @@
       <c r="J33">
         <v>17.339634885274819</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>51</v>
       </c>
-      <c r="M33" s="2">
+      <c r="N33" s="2">
         <v>13.695372000000001</v>
       </c>
-      <c r="N33" s="2">
+      <c r="O33" s="2">
         <v>12.481392</v>
       </c>
-      <c r="O33" s="2">
+      <c r="P33" s="2">
         <v>12.079953</v>
       </c>
-      <c r="P33" s="2">
+      <c r="Q33" s="2">
         <v>12.045239</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3937,23 +3937,23 @@
       <c r="J34">
         <v>-14.128292091780139</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>52</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>16.969211999999999</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>15.921075999999999</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <v>15.945175000000001</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>15.957732</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -3987,21 +3987,24 @@
       <c r="L35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4">
-        <f>(M34-N34)/N34</f>
+      <c r="M35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4">
+        <f>(N34-O34)/O34</f>
         <v>6.5833238909229472E-2</v>
       </c>
-      <c r="O35" s="4">
-        <f>(M34-O34)/O34</f>
+      <c r="P35" s="4">
+        <f>(N34-P34)/P34</f>
         <v>6.422237448005419E-2</v>
       </c>
-      <c r="P35" s="4">
-        <f>(M34-P34)/P34</f>
+      <c r="Q35" s="4">
+        <f>(N34-Q34)/Q34</f>
         <v>6.3384947184223855E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -4033,18 +4036,24 @@
         <v>31.957893061260709</v>
       </c>
       <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4">
-        <f>(N34-O34)/O34</f>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36" s="4">
+        <f>(O34-N34)/N34</f>
+        <v>-6.1766922353259514E-2</v>
+      </c>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4">
+        <f>(O34-P34)/P34</f>
         <v>-1.5113662910567884E-3</v>
       </c>
-      <c r="P36" s="4">
-        <f>(N34-P34)/P34</f>
+      <c r="Q36" s="4">
+        <f>(O34-Q34)/Q34</f>
         <v>-2.2970682801290738E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -4076,15 +4085,24 @@
         <v>44.566314449008573</v>
       </c>
       <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4">
-        <f>(O34-P34)/P34</f>
+      <c r="M37" t="s">
+        <v>48</v>
+      </c>
+      <c r="N37" s="4">
+        <f>(P34-N34)/N34</f>
+        <v>-6.0346762124251739E-2</v>
+      </c>
+      <c r="O37" s="4">
+        <f>(P34-O34)/O34</f>
+        <v>1.5136539766534263E-3</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4">
+        <f>(P34-Q34)/Q34</f>
         <v>-7.8689127001250949E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>24.34695</v>
       </c>
@@ -4097,23 +4115,23 @@
       <c r="F38">
         <v>18.595269999999999</v>
       </c>
-      <c r="L38" s="3" t="s">
-        <v>54</v>
+      <c r="M38" t="s">
+        <v>49</v>
       </c>
       <c r="N38" s="4">
-        <f>(M33-N33)/N33</f>
-        <v>9.7263189874975578E-2</v>
+        <f>(Q34-N34)/N34</f>
+        <v>-5.9606774905045616E-2</v>
       </c>
       <c r="O38" s="4">
-        <f>(M33-O33)/O33</f>
-        <v>0.13372725870704968</v>
+        <f>(Q34-O34)/O34</f>
+        <v>2.3023569512513279E-3</v>
       </c>
       <c r="P38" s="4">
-        <f>(M33-P33)/P33</f>
-        <v>0.13699462501325213</v>
+        <f>(Q34-P34)/P34</f>
+        <v>7.8751095550843827E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>24.34695</v>
       </c>
@@ -4126,17 +4144,26 @@
       <c r="F39">
         <v>18.595269999999999</v>
       </c>
-      <c r="L39" s="3"/>
+      <c r="L39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
       <c r="O39" s="4">
         <f>(N33-O33)/O33</f>
-        <v>3.3231834594058429E-2</v>
+        <v>9.7263189874975578E-2</v>
       </c>
       <c r="P39" s="4">
         <f>(N33-P33)/P33</f>
-        <v>3.6209576248341695E-2</v>
+        <v>0.13372725870704968</v>
+      </c>
+      <c r="Q39" s="4">
+        <f>(N33-Q33)/Q33</f>
+        <v>0.13699462501325213</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>24.34695</v>
       </c>
@@ -4150,12 +4177,23 @@
         <v>18.595269999999999</v>
       </c>
       <c r="L40" s="3"/>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="4">
+        <f>(O33-N33)/N33</f>
+        <v>-8.8641622878151916E-2</v>
+      </c>
       <c r="P40" s="4">
         <f>(O33-P33)/P33</f>
-        <v>2.8819685520560649E-3</v>
+        <v>3.3231834594058429E-2</v>
+      </c>
+      <c r="Q40" s="4">
+        <f>(O33-Q33)/Q33</f>
+        <v>3.6209576248341695E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>24.34695</v>
       </c>
@@ -4168,8 +4206,24 @@
       <c r="F41">
         <v>18.595269999999999</v>
       </c>
+      <c r="L41" s="3"/>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" s="4">
+        <f>(P33-N33)/N33</f>
+        <v>-0.11795364156592468</v>
+      </c>
+      <c r="O41" s="4">
+        <f>(P33-O33)/O33</f>
+        <v>-3.216299912702044E-2</v>
+      </c>
+      <c r="Q41" s="4">
+        <f>(P33-Q33)/Q33</f>
+        <v>2.8819685520560649E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>24.34695</v>
       </c>
@@ -4181,12 +4235,28 @@
       </c>
       <c r="F42">
         <v>18.595269999999999</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="4">
+        <f>(Q34-N34)/N34</f>
+        <v>-5.9606774905045616E-2</v>
+      </c>
+      <c r="O42" s="4">
+        <f>(Q34-O34)/O34</f>
+        <v>2.3023569512513279E-3</v>
+      </c>
+      <c r="P42" s="4">
+        <f>(Q34-P34)/P34</f>
+        <v>7.8751095550843827E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L35:L37"/>
-    <mergeCell ref="L38:L40"/>
+    <mergeCell ref="L39:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
